--- a/TestCasesinExcell/MagnifyB/Amazon/amazon.xlsx
+++ b/TestCasesinExcell/MagnifyB/Amazon/amazon.xlsx
@@ -5,16 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC.DESKTOP-Q8L0TS6\Documents\GitHub\MultipleBroswers\TestCasesinExcell\MagnifyB\Amazon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC.DESKTOP-Q8L0TS6\Documents\GitHub\MultipleBroswers\TestCasesinExcell\Amazon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B79EC1D2-F720-4C39-9778-A7753D2EB598}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A806D6-17E3-454E-A954-AC786791B91B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sitemap" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="headingtag" sheetId="3" r:id="rId2"/>
+    <sheet name="img" sheetId="4" r:id="rId3"/>
+    <sheet name="Response" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="147">
   <si>
     <t>Description</t>
   </si>
@@ -55,9 +57,6 @@
     <t>Scenario 1</t>
   </si>
   <si>
-    <t>Validate Sign In vGro appian application</t>
-  </si>
-  <si>
     <t>wait</t>
   </si>
   <si>
@@ -85,20 +84,399 @@
     <t>PASS</t>
   </si>
   <si>
-    <t>Status code 200 is 360, Incorrect codes is 0</t>
-  </si>
-  <si>
-    <t>Status Code</t>
-  </si>
-  <si>
-    <t>Response</t>
+    <t>h1</t>
+  </si>
+  <si>
+    <t>//meta[@property='og:image']</t>
+  </si>
+  <si>
+    <t>Total no of og:image Available: 1</t>
+  </si>
+  <si>
+    <t>verify that image data is avaiable In meta</t>
+  </si>
+  <si>
+    <t>verify that image data is available in meta</t>
+  </si>
+  <si>
+    <t>Verify the number of h1 and h2 tags in sitemap page</t>
+  </si>
+  <si>
+    <t>Verify the number of h1 tags in sitemap page</t>
+  </si>
+  <si>
+    <t>h5</t>
+  </si>
+  <si>
+    <t>Verify the number of h5 tags in sitemap page</t>
+  </si>
+  <si>
+    <t>h1 tags is  [You supply the dream.
+We supply the rest.]</t>
+  </si>
+  <si>
+    <t>h5 tags is  []</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://www.amazon.com/gp/help/customer/display.html/ref=icp_flyout?ie=UTF8&amp;nodeId=202085910</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://www.amazon.com/business/register/welcome</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/work-with-us</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/work-with-us/commercial/agribusiness</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/work-with-us/commercial/automotive</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/work-with-us/commercial/business-products-services</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/work-with-us/commercial/construction</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/work-with-us/commercial/consumer-products-services</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/work-with-us/commercial/energy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/find-solutions/e-procurement</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/work-with-us/commercial/financial-services</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/work-with-us/commercial/food-service-hospitality</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/work-with-us/commercial/industrials</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/work-with-us/commercial/information-technology</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/work-with-us/commercial/materials</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/work-with-us/commercial/power-and-utilities</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/work-with-us/commercial/real-estate</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/work-with-us/commercial/retail-distribution</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/work-with-us/commercial/telecom-media</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/work-with-us/commercial/transportation-logistics</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/work-with-us/commercial</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/work-with-us/education</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/work-with-us/enterprise</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/work-with-us/government</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/work-with-us/healthcare</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/work-with-us/nonprofit</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/work-with-us/small-business</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/work-with-us/commercial/startups</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://sell.amazon.com/programs/amazon-business</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/social-responsibility</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/find-solutions</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/find-solutions/streamline-procurement-process/integrations</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/find-solutions/growth-acceleration-solutions/fill-operational-gaps</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/find-solutions/growth-acceleration-solutions/integrate-across-your-organization</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/find-solutions/spend-intelligence-solutions</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/find-solutions/manage-purchasing/analytics</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/find-solutions/spend-intelligence-solutions/scale-buying-through-compliance</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/find-solutions/reduce-costs/payment-solutions</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/find-solutions/purchasing-optimization</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/find-solutions/purchasing-optimization/add-users</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/find-solutions/purchasing-optimization/operations</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/find-solutions/purchasing-optimization/savings</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/find-solutions#industryso</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/find-solutions/simplify-buying/selection</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/find-solutions/simplify-buying/selection/office-supplies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/find-solutions/simplify-buying/selection/it-products</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/find-solutions/simplify-buying/selection/breakroom</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/find-solutions/simplify-buying/selection/janitorial-sanitation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/find-solutions/simplify-buying/selection/mro-industrial</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/find-solutions/simplify-buying/selection/restaurant-supplies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/find-solutions/simplify-buying/selection/professional-medical-licensed-products</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/find-solutions/simplify-buying/selection/pro-beauty</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/find-solutions/simplify-buying/selection/wholesale</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/find-solutions/simplify-buying/selection/bulk</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/find-solutions/business-prime</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://play.google.com/store/apps/details?id=com.amazon.mShop.android.business.shopping&amp;hl=en_SG&amp;gl=US</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://apps.apple.com/us/app/amazon-business/id1498197033</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/find-solutions/mobile-app</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/discover-more</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/discover-more/customer-success-stories</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/discover-more/events</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/discover-more/release-notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/partners</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/discover-more/newsletters</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/discover-more/blog</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/discover-more/events/training-videos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/events/reshape-virtual/on-demand?ref_=b2b_reg_rs22_a_p_web_nav_20211108</t>
+  </si>
+  <si>
+    <t>Contact sales - https://business.amazon.com/en/contact-us</t>
+  </si>
+  <si>
+    <t>Create a free account - https://www.amazon.com/business/register/org/landing?ref_=b2b_mcs_L1_regnav&amp;ecid=61042027444743534562105414387252332428&amp;abreg_ecid=61042027444743534562105414387252332428&amp;transactid=610420274447435345621054143872523324282022-12-27T06%3A12%3A08.506Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/contact-us</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://www.amazon.com/business/register/org/landing?ref_=b2b_mcs_L1_regnav&amp;ecid=61042027444743534562105414387252332428&amp;abreg_ecid=61042027444743534562105414387252332428&amp;transactid=610420274447435345621054143872523324282022-12-27T06%3A12%3A08.506Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/find-solutions/simplify-buying/shipping-delivery</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/discover-more/customer-success</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/discover-more/customer-success/the-office-tex</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/discover-more/customer-success/sugar-mountain</t>
+  </si>
+  <si>
+    <t>Meet our 2022 Small Business Grants Recipients &gt; - https://business.amazon.com/en/discover-more/blog/small-business-grants-2022?ref_=ab_reg_notag_bannerbacom</t>
+  </si>
+  <si>
+    <t>Learn more - https://business.amazon.com/en/find-solutions/simplify-buying/selection/bulk</t>
+  </si>
+  <si>
+    <t>Discover how - https://business.amazon.com/en/work-with-us/enterprise?ref_=ab_reg_notag_bfn_mtyp_ab_reg_dsk</t>
+  </si>
+  <si>
+    <t>Explore how - https://business.amazon.com/en/work-with-us/small-business?ref_=ab_reg_notag_bfn_mtyp_ab_reg_dsk</t>
+  </si>
+  <si>
+    <t>Uncover how - https://business.amazon.com/en/work-with-us/government/here-to-help-the-public-sector?ref_=ab_reg_notag_bfn_mtyp_ab_reg_dsk</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/assets/global/documents/reports/Amazon-Business-Research-Report-2022.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/discover-more/blog/digital-fundraising-donation-driver</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/discover-more/customer-success/mary-s-center</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/discover-more/blog/why-exxonmobil-s-procurement-team-was-prepared-for-business-cont</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/discover-more/customer-success/city-of-baltimore</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/discover-more/blog/newbalance</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/discover-more/customer-success/citi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/discover-more/customer-success/nc-state</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/discover-more/blog/union-pacific</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/discover-more/customer-success/vacasa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/discover-more/customer-success/uso</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/discover-more/customer-success/saline-area-schools</t>
+  </si>
+  <si>
+    <t>Contact sales - https://business.amazon.com/en/smartbusinessbuying/contact-us</t>
+  </si>
+  <si>
+    <t>The Amazon Business blog - https://business.amazon.com/en/discover-more/blog</t>
+  </si>
+  <si>
+    <t>Customer success stories - https://business.amazon.com/en/discover-more/customer-success</t>
+  </si>
+  <si>
+    <t>Join our team - https://business.amazon.com/en/join-our-team</t>
+  </si>
+  <si>
+    <t>Release notes - https://business.amazon.com/en/discover-more/release-notes</t>
+  </si>
+  <si>
+    <t>Amazon Business Partner Network - https://business.amazon.com/en/partners</t>
+  </si>
+  <si>
+    <t>Privacy notice - https://www.amazon.com/gp/help/customer/display.html?ie=UTF8&amp;nodeId=468496&amp;ref_=b2b_mcs_footer</t>
+  </si>
+  <si>
+    <t>Covid-19 - https://business.amazon.com/en/work-with-us/healthcare/covid-19-supplies</t>
+  </si>
+  <si>
+    <t>Sitemap - https://business.amazon.com/en/sitemap</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.in/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.co.uk/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.fr/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.de/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.es/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.it/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.ca/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.co.jp/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://www.facebook.com/AmazonBusiness/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://twitter.com/AmazonBusiness</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://www.linkedin.com/company/amazon-business</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://www.youtube.com/channel/UCCirH37GCSvr9NFF62-GEaA</t>
+  </si>
+  <si>
+    <t>Status code 200 is 208, Incorrect codes is 0</t>
+  </si>
+  <si>
+    <t>Verify the hyperlinks response in sitemap page</t>
+  </si>
+  <si>
+    <t>Verify the hyperlinks response</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,13 +528,101 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -210,7 +676,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -236,6 +702,24 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -519,8 +1003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -561,9 +1045,9 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="28" t="s">
         <v>5</v>
       </c>
     </row>
@@ -576,27 +1060,27 @@
       </c>
       <c r="C3" s="6"/>
       <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="29" t="s">
         <v>17</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>11</v>
-      </c>
       <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="30" t="s">
         <v>17</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -604,59 +1088,59 @@
         <v>8</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>9</v>
+        <v>145</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="31" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="32" t="s">
         <v>17</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>146</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
       <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>18</v>
+        <v>144</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
         <v>16</v>
       </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>16</v>
+      <c r="E8" s="34" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -666,18 +1150,1999 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AAFC348-A7B7-481F-97A2-90255355BC58}">
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="38.6328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="46.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.36328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="70.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.36328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.1796875" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68AD2E55-F3F8-4B67-BA34-2785A8DD80A7}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="35.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="62.453125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="49.453125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="38.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.1796875" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:B208"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C2" t="s">
-        <v>20</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>67</v>
+      </c>
+      <c r="B41">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>69</v>
+      </c>
+      <c r="B43">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>70</v>
+      </c>
+      <c r="B44">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>71</v>
+      </c>
+      <c r="B45">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>72</v>
+      </c>
+      <c r="B46">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>73</v>
+      </c>
+      <c r="B47">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>74</v>
+      </c>
+      <c r="B48">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>75</v>
+      </c>
+      <c r="B49">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>76</v>
+      </c>
+      <c r="B50">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>77</v>
+      </c>
+      <c r="B51">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>78</v>
+      </c>
+      <c r="B52">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>79</v>
+      </c>
+      <c r="B53">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>80</v>
+      </c>
+      <c r="B54">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>81</v>
+      </c>
+      <c r="B55">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>82</v>
+      </c>
+      <c r="B56">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>83</v>
+      </c>
+      <c r="B57">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>84</v>
+      </c>
+      <c r="B58">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>85</v>
+      </c>
+      <c r="B59">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>86</v>
+      </c>
+      <c r="B60">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>87</v>
+      </c>
+      <c r="B61">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>88</v>
+      </c>
+      <c r="B62">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>89</v>
+      </c>
+      <c r="B63">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>90</v>
+      </c>
+      <c r="B64">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>91</v>
+      </c>
+      <c r="B65">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>92</v>
+      </c>
+      <c r="B66">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>93</v>
+      </c>
+      <c r="B67">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>94</v>
+      </c>
+      <c r="B68">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>95</v>
+      </c>
+      <c r="B69">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>96</v>
+      </c>
+      <c r="B70">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>97</v>
+      </c>
+      <c r="B71">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>98</v>
+      </c>
+      <c r="B72">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>99</v>
+      </c>
+      <c r="B73">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>33</v>
+      </c>
+      <c r="B74">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>34</v>
+      </c>
+      <c r="B75">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>35</v>
+      </c>
+      <c r="B76">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>36</v>
+      </c>
+      <c r="B77">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>37</v>
+      </c>
+      <c r="B78">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>38</v>
+      </c>
+      <c r="B79">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>39</v>
+      </c>
+      <c r="B80">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>40</v>
+      </c>
+      <c r="B81">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>41</v>
+      </c>
+      <c r="B82">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>42</v>
+      </c>
+      <c r="B83">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>43</v>
+      </c>
+      <c r="B84">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>44</v>
+      </c>
+      <c r="B85">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>45</v>
+      </c>
+      <c r="B86">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>46</v>
+      </c>
+      <c r="B87">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>47</v>
+      </c>
+      <c r="B88">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>48</v>
+      </c>
+      <c r="B89">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>49</v>
+      </c>
+      <c r="B90">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>50</v>
+      </c>
+      <c r="B91">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>33</v>
+      </c>
+      <c r="B92">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>51</v>
+      </c>
+      <c r="B93">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>52</v>
+      </c>
+      <c r="B94">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>53</v>
+      </c>
+      <c r="B95">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>54</v>
+      </c>
+      <c r="B96">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>55</v>
+      </c>
+      <c r="B97">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>56</v>
+      </c>
+      <c r="B98">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>57</v>
+      </c>
+      <c r="B99">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>58</v>
+      </c>
+      <c r="B100">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>59</v>
+      </c>
+      <c r="B101">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>60</v>
+      </c>
+      <c r="B102">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>60</v>
+      </c>
+      <c r="B103">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>61</v>
+      </c>
+      <c r="B104">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>62</v>
+      </c>
+      <c r="B105">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>63</v>
+      </c>
+      <c r="B106">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>64</v>
+      </c>
+      <c r="B107">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>65</v>
+      </c>
+      <c r="B108">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>66</v>
+      </c>
+      <c r="B109">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>67</v>
+      </c>
+      <c r="B110">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>68</v>
+      </c>
+      <c r="B111">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>69</v>
+      </c>
+      <c r="B112">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>70</v>
+      </c>
+      <c r="B113">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>71</v>
+      </c>
+      <c r="B114">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>72</v>
+      </c>
+      <c r="B115">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>73</v>
+      </c>
+      <c r="B116">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>74</v>
+      </c>
+      <c r="B117">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>75</v>
+      </c>
+      <c r="B118">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>76</v>
+      </c>
+      <c r="B119">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>77</v>
+      </c>
+      <c r="B120">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>78</v>
+      </c>
+      <c r="B121">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>79</v>
+      </c>
+      <c r="B122">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>80</v>
+      </c>
+      <c r="B123">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>81</v>
+      </c>
+      <c r="B124">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>82</v>
+      </c>
+      <c r="B125">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>83</v>
+      </c>
+      <c r="B126">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>84</v>
+      </c>
+      <c r="B127">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>85</v>
+      </c>
+      <c r="B128">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>86</v>
+      </c>
+      <c r="B129">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>87</v>
+      </c>
+      <c r="B130">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>88</v>
+      </c>
+      <c r="B131">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>89</v>
+      </c>
+      <c r="B132">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>90</v>
+      </c>
+      <c r="B133">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>91</v>
+      </c>
+      <c r="B134">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>92</v>
+      </c>
+      <c r="B135">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>93</v>
+      </c>
+      <c r="B136">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>94</v>
+      </c>
+      <c r="B137">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>95</v>
+      </c>
+      <c r="B138">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>96</v>
+      </c>
+      <c r="B139">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>97</v>
+      </c>
+      <c r="B140">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>100</v>
+      </c>
+      <c r="B141">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>101</v>
+      </c>
+      <c r="B142">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>32</v>
+      </c>
+      <c r="B143">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>102</v>
+      </c>
+      <c r="B144">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>85</v>
+      </c>
+      <c r="B145">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>95</v>
+      </c>
+      <c r="B146">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>103</v>
+      </c>
+      <c r="B147">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>92</v>
+      </c>
+      <c r="B148">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>104</v>
+      </c>
+      <c r="B149">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>104</v>
+      </c>
+      <c r="B150">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>105</v>
+      </c>
+      <c r="B151">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>105</v>
+      </c>
+      <c r="B152">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>106</v>
+      </c>
+      <c r="B153">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>107</v>
+      </c>
+      <c r="B154">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>88</v>
+      </c>
+      <c r="B155">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>108</v>
+      </c>
+      <c r="B156">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>109</v>
+      </c>
+      <c r="B157">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>110</v>
+      </c>
+      <c r="B158">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>111</v>
+      </c>
+      <c r="B159">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>112</v>
+      </c>
+      <c r="B160">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>113</v>
+      </c>
+      <c r="B161">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>114</v>
+      </c>
+      <c r="B162">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>115</v>
+      </c>
+      <c r="B163">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>116</v>
+      </c>
+      <c r="B164">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
+        <v>117</v>
+      </c>
+      <c r="B165">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
+        <v>118</v>
+      </c>
+      <c r="B166">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>119</v>
+      </c>
+      <c r="B167">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>105</v>
+      </c>
+      <c r="B168">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
+        <v>120</v>
+      </c>
+      <c r="B169">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>121</v>
+      </c>
+      <c r="B170">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>122</v>
+      </c>
+      <c r="B171">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>123</v>
+      </c>
+      <c r="B172">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>98</v>
+      </c>
+      <c r="B173">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>124</v>
+      </c>
+      <c r="B174">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
+        <v>125</v>
+      </c>
+      <c r="B175">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
+        <v>126</v>
+      </c>
+      <c r="B176">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
+        <v>127</v>
+      </c>
+      <c r="B177">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
+        <v>128</v>
+      </c>
+      <c r="B178">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
+        <v>129</v>
+      </c>
+      <c r="B179">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
+        <v>130</v>
+      </c>
+      <c r="B180">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
+        <v>131</v>
+      </c>
+      <c r="B181">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
+        <v>30</v>
+      </c>
+      <c r="B182">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
+        <v>132</v>
+      </c>
+      <c r="B183">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
+        <v>133</v>
+      </c>
+      <c r="B184">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A185" t="s">
+        <v>134</v>
+      </c>
+      <c r="B185">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A186" t="s">
+        <v>135</v>
+      </c>
+      <c r="B186">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A187" t="s">
+        <v>136</v>
+      </c>
+      <c r="B187">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A188" t="s">
+        <v>137</v>
+      </c>
+      <c r="B188">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A189" t="s">
+        <v>138</v>
+      </c>
+      <c r="B189">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A190" t="s">
+        <v>139</v>
+      </c>
+      <c r="B190">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
+        <v>30</v>
+      </c>
+      <c r="B191">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A192" t="s">
+        <v>31</v>
+      </c>
+      <c r="B192">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A193" t="s">
+        <v>140</v>
+      </c>
+      <c r="B193">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
+        <v>141</v>
+      </c>
+      <c r="B194">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
+        <v>142</v>
+      </c>
+      <c r="B195">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
+        <v>143</v>
+      </c>
+      <c r="B196">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
+        <v>140</v>
+      </c>
+      <c r="B197">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
+        <v>141</v>
+      </c>
+      <c r="B198">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
+        <v>142</v>
+      </c>
+      <c r="B199">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A200" t="s">
+        <v>143</v>
+      </c>
+      <c r="B200">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
+        <v>86</v>
+      </c>
+      <c r="B201">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A202" t="s">
+        <v>87</v>
+      </c>
+      <c r="B202">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A203" t="s">
+        <v>140</v>
+      </c>
+      <c r="B203">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A204" t="s">
+        <v>141</v>
+      </c>
+      <c r="B204">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A205" t="s">
+        <v>142</v>
+      </c>
+      <c r="B205">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A206" t="s">
+        <v>143</v>
+      </c>
+      <c r="B206">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A207" t="s">
+        <v>30</v>
+      </c>
+      <c r="B207">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A208" t="s">
+        <v>31</v>
+      </c>
+      <c r="B208">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
